--- a/pet_pals/members.xlsx
+++ b/pet_pals/members.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DQ\Documents\gunbowl_manage_heroku\pet_pals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042758C5-A6D0-4A7F-B0AF-6CAB04E43D12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC2BF98-A5A4-45FE-993A-C8FF6AF82311}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{7C54A1FF-7CC4-4994-9F6C-E12167FA19EB}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -314,6 +314,10 @@
   </si>
   <si>
     <t>DoE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -678,15 +682,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFB1EC2-A5B6-4A7E-A6C4-B1B9E700A1CA}">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.7"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -699,340 +703,544 @@
       <c r="D1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="E1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A45" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A46" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A47" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A51" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="E51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="E52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="E53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A54" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="E54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="E55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A56" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="E56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A57" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="E57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A58" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="E58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A59" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="E59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A60" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="E60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A61" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="E61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A62" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="E62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A63" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="E63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A64" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="E64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A65" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="E65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A66" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="E66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A67" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="E67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A68" t="s">
         <v>67</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
